--- a/Hopital/View/Tools/BilanRepas.xlsx
+++ b/Hopital/View/Tools/BilanRepas.xlsx
@@ -15,51 +15,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
-  <si>
-    <t>idInfo</t>
-  </si>
-  <si>
-    <t>idUser</t>
-  </si>
-  <si>
-    <t>nom</t>
-  </si>
-  <si>
-    <t>prenom</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+  <si>
+    <t>idRdv</t>
   </si>
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>adresse</t>
-  </si>
-  <si>
-    <t>mutuel</t>
-  </si>
-  <si>
-    <t>securité social</t>
-  </si>
-  <si>
-    <t>optionTV</t>
-  </si>
-  <si>
-    <t>optionWifi</t>
-  </si>
-  <si>
-    <t>regime</t>
-  </si>
-  <si>
-    <t>Birba</t>
-  </si>
-  <si>
-    <t>Enzo</t>
-  </si>
-  <si>
-    <t>2001-11-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 rue du 19 mars 1962 </t>
+    <t>horaire</t>
+  </si>
+  <si>
+    <t>medecin</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>motif</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>9:00</t>
+  </si>
+  <si>
+    <t>Jarves Paul</t>
+  </si>
+  <si>
+    <t>test_ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventre dingueries 
+</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>ererer</t>
   </si>
 </sst>
 </file>
@@ -78,7 +73,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,12 +92,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="BDD7EE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC107"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -127,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -138,9 +127,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -442,10 +428,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -456,14 +442,9 @@
     <col min="4" max="4" width="20" customWidth="true" style="0"/>
     <col min="5" max="5" width="20" customWidth="true" style="0"/>
     <col min="6" max="6" width="20" customWidth="true" style="0"/>
-    <col min="7" max="7" width="20" customWidth="true" style="0"/>
-    <col min="8" max="8" width="20" customWidth="true" style="0"/>
-    <col min="9" max="9" width="20" customWidth="true" style="0"/>
-    <col min="10" max="10" width="20" customWidth="true" style="0"/>
-    <col min="11" max="11" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customHeight="1" ht="24">
+    <row r="1" spans="1:6" customHeight="1" ht="24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,173 +463,110 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:6" customHeight="1" ht="24">
+      <c r="A2" s="2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" customHeight="1" ht="24">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="3" spans="1:6" customHeight="1" ht="24">
+      <c r="A3" s="2">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2">
-        <v>4561215616</v>
-      </c>
-      <c r="H2" s="2">
-        <v>78654896</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" customHeight="1" ht="24">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" customHeight="1" ht="24">
+    </row>
+    <row r="4" spans="1:6" customHeight="1" ht="24">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" customHeight="1" ht="24">
+    </row>
+    <row r="5" spans="1:6" customHeight="1" ht="24">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" customHeight="1" ht="24">
+    </row>
+    <row r="6" spans="1:6" customHeight="1" ht="24">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" customHeight="1" ht="24">
+    </row>
+    <row r="7" spans="1:6" customHeight="1" ht="24">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" customHeight="1" ht="24">
+    </row>
+    <row r="8" spans="1:6" customHeight="1" ht="24">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" customHeight="1" ht="24">
+    </row>
+    <row r="9" spans="1:6" customHeight="1" ht="24">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" customHeight="1" ht="24">
+    </row>
+    <row r="10" spans="1:6" customHeight="1" ht="24">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" customHeight="1" ht="24">
+    </row>
+    <row r="11" spans="1:6" customHeight="1" ht="24">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
